--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Screeps\ScreepsKT-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6E44C-08BA-4220-9CD4-29136741D532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC874A-BBAA-47CD-97A5-AFC39D465DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="9" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
-    <sheet name="lab" sheetId="2" r:id="rId4"/>
-    <sheet name="buttle group" sheetId="3" r:id="rId5"/>
-    <sheet name="balance upgrader" sheetId="4" r:id="rId6"/>
-    <sheet name="Program object" sheetId="6" r:id="rId7"/>
-    <sheet name="Лист2" sheetId="7" r:id="rId8"/>
-    <sheet name="market" sheetId="8" r:id="rId9"/>
+    <sheet name="Лист4" sheetId="10" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId4"/>
+    <sheet name="lab" sheetId="2" r:id="rId5"/>
+    <sheet name="buttle group" sheetId="3" r:id="rId6"/>
+    <sheet name="balance upgrader" sheetId="4" r:id="rId7"/>
+    <sheet name="Program object" sheetId="6" r:id="rId8"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId9"/>
+    <sheet name="market" sheetId="8" r:id="rId10"/>
+    <sheet name="Лист5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
   <si>
     <t>O</t>
   </si>
@@ -593,6 +596,12 @@
   </si>
   <si>
     <t>M23</t>
+  </si>
+  <si>
+    <t>Max Base</t>
+  </si>
+  <si>
+    <t>Min Base</t>
   </si>
 </sst>
 </file>
@@ -839,6 +848,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361415</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6CBBB0-16FD-4B83-9D97-9A0A87DFD6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="457200"/>
+          <a:ext cx="4276190" cy="4304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1140,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,6 +2742,256 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
+  <dimension ref="E2:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>0.5*500/0.01</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>F13/1000*300</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>60*200+900</f>
+        <v>12900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
+  <dimension ref="J2:X20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="29" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <v>12</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAFC51-DB63-4146-9722-38792520926E}">
   <dimension ref="B5:R34"/>
@@ -2814,6 +3122,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EA9725-E3BC-4C8E-91F2-BBE4C2842BC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45876F5E-1FAC-4475-AFDB-AB0B2C977DEC}">
   <dimension ref="N10:S11"/>
   <sheetViews>
@@ -2854,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
   <dimension ref="B5:AB13"/>
   <sheetViews>
@@ -3072,7 +3392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D42C2D-809D-49DE-828C-EB53612AEB33}">
   <dimension ref="F4:Z30"/>
   <sheetViews>
@@ -3430,7 +3750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
   <dimension ref="E4:M25"/>
   <sheetViews>
@@ -3526,7 +3846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90AA18-E4B9-401D-951F-C96D9E790EE7}">
   <dimension ref="E5:X20"/>
   <sheetViews>
@@ -3714,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A4D06-7154-4F17-8C52-71025DE52D9E}">
   <dimension ref="E2:J8"/>
   <sheetViews>
@@ -3786,119 +4106,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
-  <dimension ref="E2:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G4">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.04</v>
-      </c>
-      <c r="G5">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f>0.5*500/0.01</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>F13/1000*300</f>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="N15">
-        <f>60*200+900</f>
-        <v>12900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Screeps\ScreepsKT-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEC874A-BBAA-47CD-97A5-AFC39D465DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9BA477-F4A2-40E7-A9AE-0E6C9EC88345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Лист2" sheetId="7" r:id="rId9"/>
     <sheet name="market" sheetId="8" r:id="rId10"/>
     <sheet name="Лист5" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист6" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="194">
   <si>
     <t>O</t>
   </si>
@@ -602,6 +603,27 @@
   </si>
   <si>
     <t>Min Base</t>
+  </si>
+  <si>
+    <t>MainContext</t>
+  </si>
+  <si>
+    <t>Init if not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt;</t>
+  </si>
+  <si>
+    <t>MainRoomCollector</t>
+  </si>
+  <si>
+    <t>InStartOfTick()</t>
+  </si>
+  <si>
+    <t>MainRoom</t>
+  </si>
+  <si>
+    <t>SlaveRoom</t>
   </si>
 </sst>
 </file>
@@ -611,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₴&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +687,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -793,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -828,6 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2861,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
   <dimension ref="J2:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2989,6 +3021,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444251F-74DF-4D87-9C0E-18695CC916A8}">
+  <dimension ref="E3:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Screeps\ScreepsKT-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9BA477-F4A2-40E7-A9AE-0E6C9EC88345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7269BF1-E03D-4DF3-8368-A4FE96F3629A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="12" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="market" sheetId="8" r:id="rId10"/>
     <sheet name="Лист5" sheetId="11" r:id="rId11"/>
     <sheet name="Лист6" sheetId="12" r:id="rId12"/>
+    <sheet name="рентабельность" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
   <si>
     <t>O</t>
   </si>
@@ -624,6 +625,15 @@
   </si>
   <si>
     <t>SlaveRoom</t>
+  </si>
+  <si>
+    <t>економия</t>
+  </si>
+  <si>
+    <t>профит при использовании XGH2O</t>
+  </si>
+  <si>
+    <t>можно купить energy</t>
   </si>
 </sst>
 </file>
@@ -824,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -850,6 +860,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1293,51 +1304,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="23" t="s">
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="23" t="s">
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="23" t="s">
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="23" t="s">
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="23" t="s">
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="23" t="s">
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="23" t="s">
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="26"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3028,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7444251F-74DF-4D87-9C0E-18695CC916A8}">
   <dimension ref="E3:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3045,7 +3056,7 @@
       </c>
     </row>
     <row r="5" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3086,6 +3097,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA4565-60E4-4378-83FE-EED25C9326D0}">
+  <dimension ref="E2:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1.458</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <f>1500*15/0.8</f>
+        <v>28125</v>
+      </c>
+      <c r="K3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="J6">
+        <f>I3*F3/F6</f>
+        <v>21870</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
